--- a/output/3_Regression/h23_test/table_rmse_h23_qlab.xlsx
+++ b/output/3_Regression/h23_test/table_rmse_h23_qlab.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/h23_test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_A4E6E127C430921FD2FE31D2F8F2D3C22457960A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18A88792-7B71-4724-9980-E177AB45559A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>RW</t>
   </si>
@@ -52,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,12 +76,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -105,24 +129,163 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +323,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,6 +357,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,9 +392,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,14 +568,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -445,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -459,28 +631,28 @@
         <v>0.8426650012175344</v>
       </c>
       <c r="E2">
-        <v>1.608778488934591</v>
+        <v>1.6087784889345911</v>
       </c>
       <c r="F2">
         <v>0.7438700017633233</v>
       </c>
       <c r="G2">
-        <v>0.7364661089439842</v>
+        <v>0.73646610894398423</v>
       </c>
       <c r="H2">
         <v>1.829824564669273</v>
       </c>
       <c r="I2">
-        <v>1.985417163810726</v>
+        <v>1.9854171638107261</v>
       </c>
       <c r="J2">
-        <v>2.076947220421973</v>
+        <v>2.0769472204219732</v>
       </c>
       <c r="K2">
         <v>1.100529672829091</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -488,34 +660,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7.622965684690173</v>
+        <v>7.6229656846901728</v>
       </c>
       <c r="D3">
-        <v>0.8051501024230791</v>
+        <v>0.80515010242307905</v>
       </c>
       <c r="E3">
-        <v>0.7468159793035545</v>
+        <v>0.74681597930355448</v>
       </c>
       <c r="F3">
         <v>0.7533695338373283</v>
       </c>
       <c r="G3">
-        <v>0.72706072844613</v>
+        <v>0.72706072844613001</v>
       </c>
       <c r="H3">
-        <v>1.49832491549876</v>
+        <v>1.4983249154987599</v>
       </c>
       <c r="I3">
-        <v>1.577975515538209</v>
+        <v>1.5779755155382089</v>
       </c>
       <c r="J3">
         <v>1.686048291114107</v>
       </c>
       <c r="K3">
-        <v>0.5924241800740704</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.59242418007407038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -523,19 +695,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5.535784122468801</v>
+        <v>5.5357841224688009</v>
       </c>
       <c r="D4">
-        <v>0.7565697253173042</v>
+        <v>0.75656972531730415</v>
       </c>
       <c r="E4">
-        <v>0.4750666027585317</v>
+        <v>0.47506660275853169</v>
       </c>
       <c r="F4">
-        <v>0.7171449868916028</v>
+        <v>0.71714498689160278</v>
       </c>
       <c r="G4">
-        <v>0.7018821657164986</v>
+        <v>0.70188216571649864</v>
       </c>
       <c r="H4">
         <v>1.354948180376313</v>
@@ -544,13 +716,13 @@
         <v>1.412061714538448</v>
       </c>
       <c r="J4">
-        <v>1.509186071769366</v>
+        <v>1.5091860717693659</v>
       </c>
       <c r="K4">
-        <v>0.7520633044644182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.75206330446441816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -558,25 +730,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>4.325393030733782</v>
+        <v>4.3253930307337818</v>
       </c>
       <c r="D5">
-        <v>0.7513517476458899</v>
+        <v>0.75135174764588986</v>
       </c>
       <c r="E5">
-        <v>0.4306949154098859</v>
+        <v>0.43069491540988591</v>
       </c>
       <c r="F5">
-        <v>0.7224840515281047</v>
+        <v>0.72248405152810469</v>
       </c>
       <c r="G5">
-        <v>0.7062274290043479</v>
+        <v>0.70622742900434787</v>
       </c>
       <c r="H5">
-        <v>1.263457282567153</v>
+        <v>1.2634572825671531</v>
       </c>
       <c r="I5">
-        <v>1.315564357665986</v>
+        <v>1.3155643576659859</v>
       </c>
       <c r="J5">
         <v>1.388089545555895</v>
@@ -585,7 +757,7 @@
         <v>0.7223658544316891</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -593,34 +765,34 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3.51911774098513</v>
+        <v>3.5191177409851302</v>
       </c>
       <c r="D6">
         <v>0.7287569969618638</v>
       </c>
       <c r="E6">
-        <v>0.4188485009683313</v>
+        <v>0.41884850096833132</v>
       </c>
       <c r="F6">
-        <v>0.7063983686558237</v>
+        <v>0.70639836865582373</v>
       </c>
       <c r="G6">
-        <v>0.6935624451799323</v>
+        <v>0.69356244517993226</v>
       </c>
       <c r="H6">
-        <v>1.220284676335487</v>
+        <v>1.2202846763354871</v>
       </c>
       <c r="I6">
-        <v>1.260853013884719</v>
+        <v>1.2608530138847189</v>
       </c>
       <c r="J6">
         <v>1.320056496853502</v>
       </c>
       <c r="K6">
-        <v>0.632076320142289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.63207632014228898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -628,19 +800,19 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2.929123697571548</v>
+        <v>2.9291236975715478</v>
       </c>
       <c r="D7">
         <v>0.7028805828048913</v>
       </c>
       <c r="E7">
-        <v>0.4204283269521673</v>
+        <v>0.42042832695216731</v>
       </c>
       <c r="F7">
-        <v>0.6845768234385391</v>
+        <v>0.68457682343853909</v>
       </c>
       <c r="G7">
-        <v>0.6774721134092763</v>
+        <v>0.67747211340927627</v>
       </c>
       <c r="H7">
         <v>1.174752822526258</v>
@@ -652,10 +824,10 @@
         <v>1.260862666018153</v>
       </c>
       <c r="K7">
-        <v>0.5884953336338939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.58849533363389395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -663,19 +835,19 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2.474884526979799</v>
+        <v>2.4748845269797992</v>
       </c>
       <c r="D8">
-        <v>0.6937136233494611</v>
+        <v>0.69371362334946107</v>
       </c>
       <c r="E8">
         <v>0.4470553192346019</v>
       </c>
       <c r="F8">
-        <v>0.6791967260832502</v>
+        <v>0.67919672608325021</v>
       </c>
       <c r="G8">
-        <v>0.6690659448881917</v>
+        <v>0.66906594488819171</v>
       </c>
       <c r="H8">
         <v>1.151944922401045</v>
@@ -687,10 +859,10 @@
         <v>1.227819433828133</v>
       </c>
       <c r="K8">
-        <v>0.5461873964277382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.54618739642773817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -698,34 +870,34 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2.114535992983971</v>
+        <v>2.1145359929839711</v>
       </c>
       <c r="D9">
-        <v>0.6859334813859377</v>
+        <v>0.68593348138593768</v>
       </c>
       <c r="E9">
-        <v>0.4765449212432983</v>
+        <v>0.47654492124329828</v>
       </c>
       <c r="F9">
-        <v>0.6744202085633568</v>
+        <v>0.67442020856335683</v>
       </c>
       <c r="G9">
-        <v>0.6620749442229192</v>
+        <v>0.66207494422291924</v>
       </c>
       <c r="H9">
-        <v>1.015831795983316</v>
+        <v>1.0158317959833161</v>
       </c>
       <c r="I9">
-        <v>1.068897991095226</v>
+        <v>1.0688979910952261</v>
       </c>
       <c r="J9">
-        <v>1.121837829430074</v>
+        <v>1.1218378294300739</v>
       </c>
       <c r="K9">
-        <v>0.5184025574966677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.51840255749666775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -739,16 +911,16 @@
         <v>0.6848530520279974</v>
       </c>
       <c r="E10">
-        <v>0.507247051865036</v>
+        <v>0.50724705186503605</v>
       </c>
       <c r="F10">
-        <v>0.6749787532736282</v>
+        <v>0.67497875327362822</v>
       </c>
       <c r="G10">
-        <v>0.665151463626223</v>
+        <v>0.66515146362622302</v>
       </c>
       <c r="H10">
-        <v>0.9933993146155711</v>
+        <v>0.99339931461557107</v>
       </c>
       <c r="I10">
         <v>1.039219338759692</v>
@@ -757,10 +929,10 @@
         <v>1.062055583356166</v>
       </c>
       <c r="K10">
-        <v>0.5186209652177086</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.51862096521770862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -771,31 +943,31 @@
         <v>1.586721729347786</v>
       </c>
       <c r="D11">
-        <v>0.6887519493704787</v>
+        <v>0.68875194937047868</v>
       </c>
       <c r="E11">
-        <v>0.5273947789045093</v>
+        <v>0.52739477890450925</v>
       </c>
       <c r="F11">
-        <v>0.6798941133363381</v>
+        <v>0.67989411333633809</v>
       </c>
       <c r="G11">
-        <v>0.672211253606038</v>
+        <v>0.67221125360603795</v>
       </c>
       <c r="H11">
-        <v>0.998686535785751</v>
+        <v>0.99868653578575095</v>
       </c>
       <c r="I11">
         <v>1.032382440509005</v>
       </c>
       <c r="J11">
-        <v>1.022389767618347</v>
+        <v>1.0223897676183471</v>
       </c>
       <c r="K11">
         <v>0.5318054493627512</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -806,13 +978,13 @@
         <v>1.391873575699639</v>
       </c>
       <c r="D12">
-        <v>0.6938660429804497</v>
+        <v>0.69386604298044974</v>
       </c>
       <c r="E12">
-        <v>0.5414519500948297</v>
+        <v>0.54145195009482971</v>
       </c>
       <c r="F12">
-        <v>0.6857938039828815</v>
+        <v>0.68579380398288148</v>
       </c>
       <c r="G12">
         <v>0.6812421187571005</v>
@@ -824,13 +996,13 @@
         <v>1.034111754855082</v>
       </c>
       <c r="J12">
-        <v>1.002821611669756</v>
+        <v>1.0028216116697559</v>
       </c>
       <c r="K12">
-        <v>0.5520514519375675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.55205145193756755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -838,34 +1010,521 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1.230087889330547</v>
+        <v>1.2300878893305469</v>
       </c>
       <c r="D13">
         <v>0.6964685901718134</v>
       </c>
       <c r="E13">
-        <v>0.5529355884272849</v>
+        <v>0.55293558842728485</v>
       </c>
       <c r="F13">
-        <v>0.6891433683992176</v>
+        <v>0.68914336839921764</v>
       </c>
       <c r="G13">
-        <v>0.6855581616923079</v>
+        <v>0.68555816169230788</v>
       </c>
       <c r="H13">
-        <v>1.009451399554871</v>
+        <v>1.0094513995548711</v>
       </c>
       <c r="I13">
         <v>1.03226408669266</v>
       </c>
       <c r="J13">
-        <v>0.9879273985858695</v>
+        <v>0.98792739858586953</v>
       </c>
       <c r="K13">
-        <v>0.570232452711339</v>
+        <v>0.57023245271133904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9</v>
+      </c>
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <v>11</v>
+      </c>
+      <c r="M15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12.48121678091533</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7.6229656846901728</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.5357841224688009</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4.3253930307337818</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.5191177409851302</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.9291236975715478</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2.4748845269797992</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2.1145359929839711</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.823596237044911</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.586721729347786</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.391873575699639</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.2300878893305469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.8426650012175344</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.80515010242307905</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.75656972531730415</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.75135174764588986</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.7287569969618638</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.7028805828048913</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.69371362334946107</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.68593348138593768</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.6848530520279974</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.68875194937047868</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.69386604298044974</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.6964685901718134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.6087784889345911</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.74681597930355448</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.47506660275853169</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.43069491540988591</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.41884850096833132</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.42042832695216731</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.4470553192346019</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.47654492124329828</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.50724705186503605</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.52739477890450925</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.54145195009482971</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.55293558842728485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.7438700017633233</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.7533695338373283</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.71714498689160278</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.72248405152810469</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.70639836865582373</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.68457682343853909</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.67919672608325021</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.67442020856335683</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.67497875327362822</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.67989411333633809</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.68579380398288148</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.68914336839921764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.73646610894398423</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.72706072844613001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.70188216571649864</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.70622742900434787</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.69356244517993226</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.67747211340927627</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.66906594488819171</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.66207494422291924</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.66515146362622302</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.67221125360603795</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.6812421187571005</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.68555816169230788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.829824564669273</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.4983249154987599</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.354948180376313</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.2634572825671531</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.2202846763354871</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.174752822526258</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1.151944922401045</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.0158317959833161</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.99339931461557107</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.99868653578575095</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.007855157564397</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1.0094513995548711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.9854171638107261</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.5779755155382089</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.412061714538448</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.3155643576659859</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.2608530138847189</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.216302512276781</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.179617624404131</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.0688979910952261</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.039219338759692</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.032382440509005</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.034111754855082</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.03226408669266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.0769472204219732</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.686048291114107</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.5091860717693659</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.388089545555895</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.320056496853502</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.260862666018153</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1.227819433828133</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.1218378294300739</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.062055583356166</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.0223897676183471</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.0028216116697559</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.98792739858586953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.100529672829091</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.59242418007407038</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.75206330446441816</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.7223658544316891</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.63207632014228898</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.58849533363389395</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.54618739642773817</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.51840255749666775</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.51862096521770862</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.5318054493627512</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.55205145193756755</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.57023245271133904</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B16:B25">
+    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C25">
+    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D25">
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E25">
+    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F25">
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G25">
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H25">
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I25">
+    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J25">
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K25">
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L25">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M25">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>